--- a/Daily timesheet.xlsx
+++ b/Daily timesheet.xlsx
@@ -334,7 +334,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -410,16 +410,270 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="13.25" customHeight="1"/>
-    <row r="5" ht="13.25" customHeight="1"/>
-    <row r="6" ht="13.25" customHeight="1"/>
-    <row r="7" ht="13.25" customHeight="1"/>
-    <row r="8" ht="13.25" customHeight="1"/>
-    <row r="9" ht="13.25" customHeight="1"/>
-    <row r="10" ht="13.25" customHeight="1"/>
-    <row r="11" ht="13.25" customHeight="1"/>
-    <row r="12" ht="13.25" customHeight="1"/>
-    <row r="13" ht="13.25" customHeight="1"/>
+    <row r="4" ht="13.25" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/02/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>find issues of SBA coverage of 2022 dropped as a result of DPC importing duplicate values for estimate live birth of 2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1hr</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="13.25" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14/02/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wrote a document on MCH program</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.25" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14/02/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>research on how to register hisp laos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.25" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15/02/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>draft TORs of data communication officer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.25" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16/02/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>attended HISP internal meeting</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="13.25" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/02/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>quick catch up on laos hmis doc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.25" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/02/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>QAIS meeting on pending issues</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="13.25" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20/02/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>assist DPC to install dhis2 on dhis2.la</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.25" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21/02/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>support Bram from PSI to find out malaria indicator not showing data for 2023 in the testing server</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="13.25" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22/02/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prepared HIS quarterly meeting agenda</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>23/02/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EIR meeting with WHO and NIP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24/02/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>check EIR and created pending issues doc for discussion internally with hisp colleagues</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -431,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -489,6 +743,94 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27/02/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>reviewed eBRS bid packages submitted by companies and Brett's summary</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27/02/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>draft computers' spec and supporting equipments of eBRS for DERM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27/02/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>draft computers' spec and supporting equipments of eBRS for DERM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28/02/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>meeting on technical scoring and shortlist with Brett</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marcel and NIU</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily timesheet.xlsx
+++ b/Daily timesheet.xlsx
@@ -334,7 +334,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -674,6 +674,50 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02/03/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>meeting internally on to discuss on EIR implementation plan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02/03/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>wrote a reply letter on DHIS2 user accounts leakage notified by department of cyber security</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -685,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -831,6 +875,72 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02/03/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>meeting on pre-bid closing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prepared presentation for bid closing to the committee</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>dne</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05/03/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>meeting with bid committee to finalize winning bidder of eBRS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
